--- a/natmiOut/OldD7/LR-pairs_lrc2p/Selplg-Selp.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Selplg-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.858408774886846</v>
+        <v>1.045864666666667</v>
       </c>
       <c r="H2">
-        <v>0.858408774886846</v>
+        <v>3.137594</v>
       </c>
       <c r="I2">
-        <v>0.01619538292741582</v>
+        <v>0.01599546767026659</v>
       </c>
       <c r="J2">
-        <v>0.01619538292741582</v>
+        <v>0.01599546767026659</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3584610916628</v>
+        <v>15.960008</v>
       </c>
       <c r="N2">
-        <v>11.3584610916628</v>
+        <v>47.880024</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9899803616776065</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9899803616776066</v>
       </c>
       <c r="Q2">
-        <v>9.750202670294172</v>
+        <v>16.69200844691733</v>
       </c>
       <c r="R2">
-        <v>9.750202670294172</v>
+        <v>150.228076022256</v>
       </c>
       <c r="S2">
-        <v>0.01619538292741582</v>
+        <v>0.01583519886941298</v>
       </c>
       <c r="T2">
-        <v>0.01619538292741582</v>
+        <v>0.01583519886941298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.53086071013124</v>
+        <v>1.045864666666667</v>
       </c>
       <c r="H3">
-        <v>1.53086071013124</v>
+        <v>3.137594</v>
       </c>
       <c r="I3">
-        <v>0.02888236482948267</v>
+        <v>0.01599546767026659</v>
       </c>
       <c r="J3">
-        <v>0.02888236482948267</v>
+        <v>0.01599546767026659</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>11.3584610916628</v>
+        <v>0.06197766666666666</v>
       </c>
       <c r="N3">
-        <v>11.3584610916628</v>
+        <v>0.185933</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.003844401134548353</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.003844401134548354</v>
       </c>
       <c r="Q3">
-        <v>17.38822181278097</v>
+        <v>0.06482025168911111</v>
       </c>
       <c r="R3">
-        <v>17.38822181278097</v>
+        <v>0.583382265202</v>
       </c>
       <c r="S3">
-        <v>0.02888236482948267</v>
+        <v>6.149299405920438E-05</v>
       </c>
       <c r="T3">
-        <v>0.02888236482948267</v>
+        <v>6.149299405920438E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.221559237455</v>
+        <v>1.045864666666667</v>
       </c>
       <c r="H4">
-        <v>49.221559237455</v>
+        <v>3.137594</v>
       </c>
       <c r="I4">
-        <v>0.9286508053696747</v>
+        <v>0.01599546767026659</v>
       </c>
       <c r="J4">
-        <v>0.9286508053696747</v>
+        <v>0.01599546767026659</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.3584610916628</v>
+        <v>0.09955433333333334</v>
       </c>
       <c r="N4">
-        <v>11.3584610916628</v>
+        <v>0.298663</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.006175237187845165</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.006175237187845166</v>
       </c>
       <c r="Q4">
-        <v>559.0811654696083</v>
+        <v>0.1041203596468889</v>
       </c>
       <c r="R4">
-        <v>559.0811654696083</v>
+        <v>0.937083236822</v>
       </c>
       <c r="S4">
-        <v>0.9286508053696747</v>
+        <v>9.877580679440529E-05</v>
       </c>
       <c r="T4">
-        <v>0.9286508053696747</v>
+        <v>9.877580679440531E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,548 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.39247343679336</v>
+        <v>2.006702333333334</v>
       </c>
       <c r="H5">
-        <v>1.39247343679336</v>
+        <v>6.020107</v>
       </c>
       <c r="I5">
-        <v>0.02627144687342687</v>
+        <v>0.03069053130839924</v>
       </c>
       <c r="J5">
-        <v>0.02627144687342687</v>
+        <v>0.03069053130839923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.3584610916628</v>
+        <v>15.960008</v>
       </c>
       <c r="N5">
-        <v>11.3584610916628</v>
+        <v>47.880024</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9899803616776065</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9899803616776066</v>
       </c>
       <c r="Q5">
-        <v>15.81635535299136</v>
+        <v>32.02698529361867</v>
       </c>
       <c r="R5">
-        <v>15.81635535299136</v>
+        <v>288.242867642568</v>
       </c>
       <c r="S5">
-        <v>0.02627144687342687</v>
+        <v>0.03038302328476698</v>
       </c>
       <c r="T5">
-        <v>0.02627144687342687</v>
+        <v>0.03038302328476698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.006702333333334</v>
+      </c>
+      <c r="H6">
+        <v>6.020107</v>
+      </c>
+      <c r="I6">
+        <v>0.03069053130839924</v>
+      </c>
+      <c r="J6">
+        <v>0.03069053130839923</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.06197766666666666</v>
+      </c>
+      <c r="N6">
+        <v>0.185933</v>
+      </c>
+      <c r="O6">
+        <v>0.003844401134548353</v>
+      </c>
+      <c r="P6">
+        <v>0.003844401134548354</v>
+      </c>
+      <c r="Q6">
+        <v>0.1243707283145556</v>
+      </c>
+      <c r="R6">
+        <v>1.119336554831</v>
+      </c>
+      <c r="S6">
+        <v>0.0001179867133819018</v>
+      </c>
+      <c r="T6">
+        <v>0.0001179867133819018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.006702333333334</v>
+      </c>
+      <c r="H7">
+        <v>6.020107</v>
+      </c>
+      <c r="I7">
+        <v>0.03069053130839924</v>
+      </c>
+      <c r="J7">
+        <v>0.03069053130839923</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.09955433333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.298663</v>
+      </c>
+      <c r="O7">
+        <v>0.006175237187845165</v>
+      </c>
+      <c r="P7">
+        <v>0.006175237187845166</v>
+      </c>
+      <c r="Q7">
+        <v>0.1997759129934445</v>
+      </c>
+      <c r="R7">
+        <v>1.797983216941</v>
+      </c>
+      <c r="S7">
+        <v>0.0001895213102503533</v>
+      </c>
+      <c r="T7">
+        <v>0.0001895213102503533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>59.82593033333333</v>
+      </c>
+      <c r="H8">
+        <v>179.477791</v>
+      </c>
+      <c r="I8">
+        <v>0.914978548362651</v>
+      </c>
+      <c r="J8">
+        <v>0.914978548362651</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>15.960008</v>
+      </c>
+      <c r="N8">
+        <v>47.880024</v>
+      </c>
+      <c r="O8">
+        <v>0.9899803616776065</v>
+      </c>
+      <c r="P8">
+        <v>0.9899803616776066</v>
+      </c>
+      <c r="Q8">
+        <v>954.8223267274427</v>
+      </c>
+      <c r="R8">
+        <v>8593.400940546984</v>
+      </c>
+      <c r="S8">
+        <v>0.9058107942353086</v>
+      </c>
+      <c r="T8">
+        <v>0.9058107942353087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>59.82593033333333</v>
+      </c>
+      <c r="H9">
+        <v>179.477791</v>
+      </c>
+      <c r="I9">
+        <v>0.914978548362651</v>
+      </c>
+      <c r="J9">
+        <v>0.914978548362651</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06197766666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.185933</v>
+      </c>
+      <c r="O9">
+        <v>0.003844401134548353</v>
+      </c>
+      <c r="P9">
+        <v>0.003844401134548354</v>
+      </c>
+      <c r="Q9">
+        <v>3.707871568222555</v>
+      </c>
+      <c r="R9">
+        <v>33.370844114003</v>
+      </c>
+      <c r="S9">
+        <v>0.003517544569412781</v>
+      </c>
+      <c r="T9">
+        <v>0.003517544569412781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>59.82593033333333</v>
+      </c>
+      <c r="H10">
+        <v>179.477791</v>
+      </c>
+      <c r="I10">
+        <v>0.914978548362651</v>
+      </c>
+      <c r="J10">
+        <v>0.914978548362651</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09955433333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.298663</v>
+      </c>
+      <c r="O10">
+        <v>0.006175237187845165</v>
+      </c>
+      <c r="P10">
+        <v>0.006175237187845166</v>
+      </c>
+      <c r="Q10">
+        <v>5.955930610381444</v>
+      </c>
+      <c r="R10">
+        <v>53.603375493433</v>
+      </c>
+      <c r="S10">
+        <v>0.005650209557929628</v>
+      </c>
+      <c r="T10">
+        <v>0.005650209557929629</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.506566</v>
+      </c>
+      <c r="H11">
+        <v>7.519698</v>
+      </c>
+      <c r="I11">
+        <v>0.03833545265868316</v>
+      </c>
+      <c r="J11">
+        <v>0.03833545265868316</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.960008</v>
+      </c>
+      <c r="N11">
+        <v>47.880024</v>
+      </c>
+      <c r="O11">
+        <v>0.9899803616776065</v>
+      </c>
+      <c r="P11">
+        <v>0.9899803616776066</v>
+      </c>
+      <c r="Q11">
+        <v>40.004813412528</v>
+      </c>
+      <c r="R11">
+        <v>360.043320712752</v>
+      </c>
+      <c r="S11">
+        <v>0.03795134528811791</v>
+      </c>
+      <c r="T11">
+        <v>0.03795134528811792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.506566</v>
+      </c>
+      <c r="H12">
+        <v>7.519698</v>
+      </c>
+      <c r="I12">
+        <v>0.03833545265868316</v>
+      </c>
+      <c r="J12">
+        <v>0.03833545265868316</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06197766666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.185933</v>
+      </c>
+      <c r="O12">
+        <v>0.003844401134548353</v>
+      </c>
+      <c r="P12">
+        <v>0.003844401134548354</v>
+      </c>
+      <c r="Q12">
+        <v>0.155351112026</v>
+      </c>
+      <c r="R12">
+        <v>1.398160008234</v>
+      </c>
+      <c r="S12">
+        <v>0.0001473768576944662</v>
+      </c>
+      <c r="T12">
+        <v>0.0001473768576944662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.506566</v>
+      </c>
+      <c r="H13">
+        <v>7.519698</v>
+      </c>
+      <c r="I13">
+        <v>0.03833545265868316</v>
+      </c>
+      <c r="J13">
+        <v>0.03833545265868316</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.09955433333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.298663</v>
+      </c>
+      <c r="O13">
+        <v>0.006175237187845165</v>
+      </c>
+      <c r="P13">
+        <v>0.006175237187845166</v>
+      </c>
+      <c r="Q13">
+        <v>0.249539507086</v>
+      </c>
+      <c r="R13">
+        <v>2.245855563774</v>
+      </c>
+      <c r="S13">
+        <v>0.000236730512870778</v>
+      </c>
+      <c r="T13">
+        <v>0.0002367305128707781</v>
       </c>
     </row>
   </sheetData>
